--- a/task_harder_spark_ex.xlsx
+++ b/task_harder_spark_ex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet-my.sharepoint.com/personal/n665484_santanderglobaltech_com/Documents/Documents/RecTask/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositiories\spark-task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{CA8F6286-964B-4C1C-932B-0EDE7153A405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456C936E-E7E4-41FE-9E82-0E0E0716B7CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6924024-9F64-454D-ADD0-CDDFC73C4493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E679651-19F0-49B1-B334-BE28D35D3DC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{0E679651-19F0-49B1-B334-BE28D35D3DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Schemas" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="91">
   <si>
     <t>TRANSACTIONS (INPUT):</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>[{NAME: G_005, PERCENTAGE: 0.6}]</t>
+  </si>
+  <si>
+    <t>ISVALID</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -374,9 +380,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,9 +398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,7 +438,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -538,7 +544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF25B8-940A-43AB-872E-116F4B7D56C3}">
   <dimension ref="B2:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N40" sqref="N39:N40"/>
     </sheetView>
   </sheetViews>
@@ -888,420 +894,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5972730-D2A8-434F-A9AC-28BF9CA383D9}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G7" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2">
+      <c r="H11" s="1">
         <v>1000</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4000</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7000</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8000</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1312,166 +1318,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F94E402-AFFC-4835-8A76-2D674F004264}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1482,133 +1491,136 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B4C640-32BA-408F-AA5D-ADE3A3474C1F}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.95</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1619,270 +1631,291 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EFB6C5-3F8E-4CE9-B7C5-8309DC618D50}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B2" s="2">
+        <v>600</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>4000</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G4" s="2">
         <v>3000</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>200</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>3000</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="F5" s="2">
+        <v>1440</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>900</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>200</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1440</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>900</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>1440</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>900</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1440</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>900</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1440</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>900</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
